--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/Excel/Datas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Magic\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D4AA4A-C682-F045-B06D-DB60817BDE91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1B2876-72F6-4A4E-A408-9D11B099A832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13340" yWindow="4140" windowWidth="28760" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
     <t>##var</t>
   </si>
@@ -237,6 +237,18 @@
   </si>
   <si>
     <t>LocalizeConfig_UI.csv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellConfig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellConfigCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellConfig.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -244,7 +256,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +284,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -307,7 +327,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -315,6 +335,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -593,24 +616,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.625" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1"/>
-    <col min="12" max="12" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.375" customWidth="1"/>
+    <col min="12" max="12" width="33.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,7 +674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -686,7 +709,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -712,7 +735,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
@@ -729,7 +752,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
@@ -746,7 +769,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>44</v>
       </c>
@@ -763,7 +786,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>45</v>
       </c>
@@ -780,7 +803,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>36</v>
       </c>
@@ -794,7 +817,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>39</v>
       </c>
@@ -808,7 +831,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>55</v>
       </c>
@@ -826,7 +849,7 @@
       </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>56</v>
       </c>
@@ -844,7 +867,7 @@
       </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>57</v>
       </c>
@@ -862,7 +885,7 @@
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>60</v>
       </c>
@@ -879,7 +902,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>59</v>
       </c>
@@ -896,7 +919,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>58</v>
       </c>
@@ -911,6 +934,20 @@
       </c>
       <c r="H15" s="2" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Magic\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1B2876-72F6-4A4E-A408-9D11B099A832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119C5891-6034-4329-82E1-5E66E2EA7B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
   <si>
     <t>##var</t>
   </si>
@@ -249,6 +249,78 @@
   </si>
   <si>
     <t>SpellConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatusEffectsConfig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatusEffectsConfigCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatusConfig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatusConfigCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillEffectsConfig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillEffectsConfigCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatusEffectsConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatusConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillEffectsConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillConfig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillConfigCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentConfig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentConfigCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChildStatusConfig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChildStatusConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChildStatusConfigCategory</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -616,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -949,6 +1021,96 @@
       <c r="E16" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="H16" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Magic\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119C5891-6034-4329-82E1-5E66E2EA7B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8D27FA-839E-4B12-9A4B-18CE242A8AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1455" yWindow="2205" windowWidth="25380" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="95">
   <si>
     <t>##var</t>
   </si>
@@ -240,87 +240,113 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SpellConfig</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpellConfigCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpellConfig.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>StatusEffectsConfig</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>StatusEffectsConfigCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>StatusConfig</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>StatusConfigCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillEffectsConfig</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillEffectsConfigCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>StatusEffectsConfig.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>StatusConfig.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillEffectsConfig.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>SkillJudgeConfigCategory</t>
+  </si>
+  <si>
+    <t>SkillJudgeConfig</t>
+  </si>
+  <si>
+    <t>AttributeConfigCategory</t>
+  </si>
+  <si>
+    <t>AttributeConfig</t>
+  </si>
+  <si>
+    <t>BuffActionControlConfigCategory</t>
+  </si>
+  <si>
+    <t>BuffActionControlConfig</t>
+  </si>
+  <si>
+    <t>BuffAttrConfigCategory</t>
+  </si>
+  <si>
+    <t>BuffAttrConfig</t>
+  </si>
+  <si>
+    <t>BuffBleedConfigCategory</t>
+  </si>
+  <si>
+    <t>BuffBleedConfig</t>
+  </si>
+  <si>
+    <t>BuffChantConfigCategory</t>
+  </si>
+  <si>
+    <t>BuffChantConfig</t>
+  </si>
+  <si>
+    <t>BuffConfigCategory</t>
+  </si>
+  <si>
+    <t>BuffConfig</t>
+  </si>
+  <si>
+    <t>EffectConfigCategory</t>
+  </si>
+  <si>
+    <t>EffectConfig</t>
+  </si>
+  <si>
+    <t>FormulaConfigCategory</t>
+  </si>
+  <si>
+    <t>FormulaConfig</t>
+  </si>
+  <si>
+    <t>SkillConfigCategory</t>
   </si>
   <si>
     <t>SkillConfig</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillConfig.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillConfigCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EquipmentConfig</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EquipmentConfig.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EquipmentConfigCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChildStatusConfig</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChildStatusConfig.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChildStatusConfigCategory</t>
+  </si>
+  <si>
+    <t>SkillStepConfigCategory</t>
+  </si>
+  <si>
+    <t>SkillStepConfig</t>
+  </si>
+  <si>
+    <t>Battle/SkillStepConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle/SkillJudgeConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle/SkillConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle/FormulaConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle/EffectConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle/BuffConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle/BuffChantConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle/BuffBleedConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle/BuffAttrConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle/BuffActionControlConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle/AttributeConfig.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -688,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1009,107 +1035,157 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>81</v>
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Magic\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8D27FA-839E-4B12-9A4B-18CE242A8AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91AE452-65CA-4857-AD4D-6223EA474407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="2205" windowWidth="25380" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="98">
   <si>
     <t>##var</t>
   </si>
@@ -300,53 +300,66 @@
     <t>SkillConfig</t>
   </si>
   <si>
+    <t>SkillStepConfig</t>
+  </si>
+  <si>
+    <t>Battle/SkillStepConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle/SkillJudgeConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle/SkillConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle/FormulaConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle/EffectConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle/BuffConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle/BuffChantConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle/BuffBleedConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle/BuffAttrConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle/BuffActionControlConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle/AttributeConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapSceneConfig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>SkillStepConfigCategory</t>
-  </si>
-  <si>
-    <t>SkillStepConfig</t>
-  </si>
-  <si>
-    <t>Battle/SkillStepConfig.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battle/SkillJudgeConfig.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battle/SkillConfig.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battle/FormulaConfig.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battle/EffectConfig.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battle/BuffConfig.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battle/BuffChantConfig.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battle/BuffBleedConfig.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battle/BuffAttrConfig.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battle/BuffActionControlConfig.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battle/AttributeConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapSceneConfigCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapSceneConfig.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -714,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1045,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -1059,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -1073,7 +1086,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -1087,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
@@ -1101,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
@@ -1115,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
@@ -1129,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
@@ -1143,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
@@ -1157,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
@@ -1171,21 +1184,35 @@
         <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s">
         <v>82</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>84</v>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Magic\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91AE452-65CA-4857-AD4D-6223EA474407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2943837-0914-405C-9949-4D0EFA26431D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="104">
   <si>
     <t>##var</t>
   </si>
@@ -360,6 +360,30 @@
   </si>
   <si>
     <t>MapSceneConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThingConfig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThingConfigCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThingConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMConfig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMConfigCategory</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -727,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1215,6 +1239,34 @@
         <v>97</v>
       </c>
     </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
